--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/34/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/34/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9529529529529529</v>
+        <v>0.272927292729273</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1767.767767767768</v>
+        <v>378.5678567856786</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08438438438438439</v>
+        <v>0.09741974197419742</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4364364364364364</v>
+        <v>0.4784478447844784</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.05605605605606</v>
+        <v>1512.791279127913</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.2792792792793</v>
+        <v>917.2817281728172</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.4844844844845</v>
+        <v>959.9360936093609</v>
       </c>
     </row>
   </sheetData>
